--- a/data_co2.xlsx
+++ b/data_co2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaminomarina/develop/a-ds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EA69DD-1183-7244-8565-9A04B8A45BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2B33FC-F3F1-6C46-8810-06DF6A73C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18080" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -962,9 +962,6 @@
     <t>2003 [YR2003]</t>
   </si>
   <si>
-    <t>Country Name</t>
-  </si>
-  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -999,6 +996,10 @@
   </si>
   <si>
     <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1348,15 +1349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
         <v>129</v>
@@ -1410,7 +1409,7 @@
         <v>295</v>
       </c>
       <c r="S1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T1" t="s">
         <v>8</v>
@@ -4891,7 +4890,7 @@
     </row>
     <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B36">
         <v>2900</v>
@@ -7618,7 +7617,7 @@
     </row>
     <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -9436,7 +9435,7 @@
     </row>
     <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s">
         <v>35</v>
@@ -11355,7 +11354,7 @@
     </row>
     <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B100">
         <v>1092560</v>
@@ -11658,7 +11657,7 @@
     </row>
     <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B103">
         <v>6140</v>
@@ -12163,7 +12162,7 @@
     </row>
     <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B108">
         <v>29250</v>
@@ -15597,7 +15596,7 @@
     </row>
     <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
@@ -16506,7 +16505,7 @@
     </row>
     <row r="151" spans="1:33">
       <c r="A151" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B151">
         <v>61050</v>
@@ -23273,7 +23272,7 @@
     </row>
     <row r="218" spans="1:33">
       <c r="A218" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B218">
         <v>16530</v>
@@ -25394,7 +25393,7 @@
     </row>
     <row r="239" spans="1:33">
       <c r="A239" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B239">
         <v>137632.26043313066</v>
@@ -25495,7 +25494,7 @@
     </row>
     <row r="240" spans="1:33">
       <c r="A240" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B240">
         <v>414879.36271416489</v>

--- a/data_co2.xlsx
+++ b/data_co2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaminomarina/develop/a-ds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF2B33FC-F3F1-6C46-8810-06DF6A73C82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C71262F-67C7-B547-9BB4-C8FE87F1835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18080" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>CountryName</t>
+    <t>Country</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1349,7 +1349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>

--- a/data_co2.xlsx
+++ b/data_co2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaminomarina/develop/a-ds/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C71262F-67C7-B547-9BB4-C8FE87F1835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B87BD4A-073A-2245-A2F2-BD52569DE774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="500" windowWidth="18080" windowHeight="9900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="data_co2_1" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
